--- a/FMS.Website/files_upload/masterPriceList.xlsx
+++ b/FMS.Website/files_upload/masterPriceList.xlsx
@@ -1,30 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iagani\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14510" windowHeight="7250"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Vehicle Usage</t>
+  </si>
+  <si>
+    <t>Zona Price List</t>
+  </si>
+  <si>
+    <t>Manufacture</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Request Year</t>
+  </si>
+  <si>
+    <t>Monthly HMS Instalment</t>
+  </si>
+  <si>
+    <t>Monthly Employee Contribution</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
+  </si>
+  <si>
+    <t>Modified By</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
   <si>
     <t>TRAC</t>
   </si>
@@ -35,104 +73,200 @@
     <t>West</t>
   </si>
   <si>
-    <t>MITSUBISHI</t>
-  </si>
-  <si>
-    <t>STRADA</t>
-  </si>
-  <si>
-    <t>2017 Triton SC 2.5 4X4 M/T Pick Up</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>HONDA</t>
-  </si>
-  <si>
-    <t>SUPRA</t>
-  </si>
-  <si>
-    <t>2017 125 CC with box</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Vehicle Type</t>
-  </si>
-  <si>
-    <t>Vehicle Usage</t>
-  </si>
-  <si>
-    <t>Zona Price List</t>
-  </si>
-  <si>
-    <t>Manufacture</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>Request Year</t>
-  </si>
-  <si>
-    <t>Monthly HMS Instalment</t>
-  </si>
-  <si>
-    <t>Monthly Employee Contribution</t>
-  </si>
-  <si>
-    <t>Created Date</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Modified Date</t>
-  </si>
-  <si>
-    <t>Modified By</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>DAIHATSU</t>
+  </si>
+  <si>
+    <t>XENIA</t>
+  </si>
+  <si>
+    <t>2014 1.3 M/T</t>
+  </si>
+  <si>
+    <t>GRAN MAX</t>
+  </si>
+  <si>
+    <t>2010 1.3 M/T BV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +279,194 @@
         <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,39 +489,321 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -250,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +887,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,146 +1061,154 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6285714285714" customWidth="1"/>
+    <col min="7" max="7" width="30.0857142857143" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="11" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="60" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="H2" s="5">
+        <v>2017</v>
+      </c>
+      <c r="I2" s="6">
+        <v>9700000</v>
+      </c>
+      <c r="J2" s="6">
+        <v>9700000</v>
+      </c>
+      <c r="K2" s="6">
+        <v>9700000</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="H3" s="5">
         <v>2017</v>
       </c>
-      <c r="I2" s="5">
-        <v>9700000.0000000019</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2017</v>
-      </c>
-      <c r="I3" s="5">
-        <v>890000.00000000012</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="I3" s="6">
+        <v>890000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>9700000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>9700000</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/FMS.Website/files_upload/masterPriceList.xlsx
+++ b/FMS.Website/files_upload/masterPriceList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Vendor</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Monthly Employee Contribution</t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
   <si>
     <t>Created Date</t>
@@ -94,12 +91,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +110,88 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -123,142 +202,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -281,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +489,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -510,21 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +554,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,158 +577,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -746,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1067,10 +1057,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1078,10 +1068,10 @@
     <col min="5" max="5" width="10.6285714285714" customWidth="1"/>
     <col min="7" max="7" width="30.0857142857143" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="10.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" spans="1:16">
+    <row r="1" ht="60" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,29 +1117,26 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="5">
         <v>2017</v>
@@ -1160,34 +1147,31 @@
       <c r="J2" s="6">
         <v>9700000</v>
       </c>
-      <c r="K2" s="6">
-        <v>9700000</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="5">
         <v>2017</v>
@@ -1198,14 +1182,11 @@
       <c r="J3" s="6">
         <v>9700000</v>
       </c>
-      <c r="K3" s="6">
-        <v>9700000</v>
-      </c>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
